--- a/Planning/Planning (8-12-2016).xlsx
+++ b/Planning/Planning (8-12-2016).xlsx
@@ -269,9 +269,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -279,6 +276,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,7 +589,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,256 +607,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
